--- a/ImageUpload/media/BFL.xlsx
+++ b/ImageUpload/media/BFL.xlsx
@@ -1085,7 +1085,7 @@
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="57" t="inlineStr">
         <is>
-          <t>Reference Number : 17December2020-BFL</t>
+          <t>Reference Number : 29September2020</t>
         </is>
       </c>
       <c r="B3" s="84" t="n"/>
@@ -1107,7 +1107,7 @@
       <c r="B4" s="86" t="n"/>
       <c r="C4" s="36" t="inlineStr">
         <is>
-          <t>BT</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="D4" s="86" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="H4" s="85" t="n"/>
       <c r="I4" s="55" t="inlineStr">
         <is>
-          <t>2020-12-17</t>
+          <t>2021-04-10</t>
         </is>
       </c>
       <c r="J4" s="85" t="n"/>
@@ -1155,7 +1155,7 @@
       <c r="B6" s="85" t="n"/>
       <c r="C6" s="36" t="inlineStr">
         <is>
-          <t>Mrs. Jane Austin</t>
+          <t>Vinay Venkatareddy</t>
         </is>
       </c>
       <c r="D6" s="84" t="n"/>
@@ -1182,7 +1182,7 @@
       <c r="C7" s="85" t="n"/>
       <c r="D7" s="43" t="inlineStr">
         <is>
-          <t>Mr. &amp; Mrs. Stevansons</t>
+          <t>Mr. &amp; Mrs. Diviktos</t>
         </is>
       </c>
       <c r="E7" s="84" t="n"/>
@@ -1201,7 +1201,7 @@
       <c r="B8" s="85" t="n"/>
       <c r="C8" s="43" t="inlineStr">
         <is>
-          <t>passport</t>
+          <t>BBMP records</t>
         </is>
       </c>
       <c r="D8" s="84" t="n"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B10" s="58" t="inlineStr">
         <is>
-          <t>8228 Birchmount Road</t>
+          <t>4 Lentini way</t>
         </is>
       </c>
       <c r="C10" s="89" t="n"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B12" s="58" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>1159 Maitland Ave</t>
         </is>
       </c>
       <c r="C12" s="89" t="n"/>
@@ -1301,7 +1301,7 @@
       <c r="B14" s="85" t="n"/>
       <c r="C14" s="59" t="inlineStr">
         <is>
-          <t>Cineplex</t>
+          <t>Panera</t>
         </is>
       </c>
       <c r="D14" s="84" t="n"/>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B15" s="36" t="inlineStr">
         <is>
-          <t>78*15*</t>
+          <t>78*40*</t>
         </is>
       </c>
       <c r="C15" s="84" t="n"/>
@@ -1336,7 +1336,7 @@
       <c r="I15" s="85" t="n"/>
       <c r="J15" s="59" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="H16" s="86" t="n"/>
       <c r="I16" s="49" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>BMRDA</t>
         </is>
       </c>
       <c r="J16" s="86" t="n"/>
@@ -1401,7 +1401,7 @@
       <c r="H18" s="85" t="n"/>
       <c r="I18" s="49" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J18" s="85" t="n"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B21" s="43" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Adigas</t>
         </is>
       </c>
       <c r="C21" s="84" t="n"/>
@@ -1467,7 +1467,7 @@
       <c r="F21" s="85" t="n"/>
       <c r="G21" s="43" t="inlineStr">
         <is>
-          <t>Adigas</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H21" s="84" t="n"/>
@@ -1491,7 +1491,7 @@
       <c r="F22" s="85" t="n"/>
       <c r="G22" s="43" t="inlineStr">
         <is>
-          <t>BestBuy</t>
+          <t>BigBazar</t>
         </is>
       </c>
       <c r="H22" s="84" t="n"/>
@@ -1515,7 +1515,7 @@
       <c r="F23" s="85" t="n"/>
       <c r="G23" s="43" t="inlineStr">
         <is>
-          <t>PVR</t>
+          <t>BMO</t>
         </is>
       </c>
       <c r="H23" s="84" t="n"/>
@@ -1539,7 +1539,7 @@
       <c r="F24" s="85" t="n"/>
       <c r="G24" s="43" t="inlineStr">
         <is>
-          <t>Shoppers</t>
+          <t>Shopper</t>
         </is>
       </c>
       <c r="H24" s="84" t="n"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B31" s="25" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Mixed_Usage</t>
         </is>
       </c>
       <c r="C31" s="89" t="n"/>
@@ -1705,7 +1705,7 @@
       <c r="H31" s="86" t="n"/>
       <c r="I31" s="66" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="J31" s="86" t="n"/>
@@ -1733,7 +1733,7 @@
       <c r="D33" s="85" t="n"/>
       <c r="E33" s="44" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="F33" s="84" t="n"/>
@@ -1751,7 +1751,7 @@
       <c r="B34" s="85" t="n"/>
       <c r="C34" s="44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D34" s="84" t="n"/>
